--- a/Problem decyzyjny Andrzej Kapczyński.xlsx
+++ b/Problem decyzyjny Andrzej Kapczyński.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repos\PUT-WD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMKK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Warianty decyzyjne</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Karabiny i pistolety maszynowe w grze CS:GO</t>
+  </si>
+  <si>
+    <t>Stara wersja</t>
+  </si>
+  <si>
+    <t>MP5-SD</t>
+  </si>
+  <si>
+    <t>Nowa wersja</t>
   </si>
 </sst>
 </file>
@@ -112,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +174,29 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF2B2D42"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -221,34 +257,63 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -256,25 +321,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -282,57 +361,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,493 +746,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="14">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14">
+        <v>64</v>
+      </c>
+      <c r="H13" s="17">
+        <v>10.16</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="20">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="12"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1050</v>
+      </c>
+      <c r="F14" s="14">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14">
+        <v>30</v>
+      </c>
+      <c r="H14" s="17">
+        <v>10.964028776978417</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="20">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="D15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="14">
+        <v>29</v>
+      </c>
+      <c r="G15" s="14">
+        <v>30</v>
+      </c>
+      <c r="H15" s="17">
+        <v>14.377358490566039</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="20">
         <v>4</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="14">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14">
+        <v>30</v>
+      </c>
+      <c r="H16" s="17">
+        <v>14.377358490566039</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="20">
+        <v>5</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1250</v>
+      </c>
+      <c r="F17" s="14">
+        <v>26</v>
+      </c>
+      <c r="G17" s="14">
+        <v>30</v>
+      </c>
+      <c r="H17" s="17">
+        <v>15.875000000000002</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="20">
+        <v>6</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2350</v>
+      </c>
+      <c r="F18" s="14">
+        <v>26</v>
+      </c>
+      <c r="G18" s="14">
+        <v>50</v>
+      </c>
+      <c r="H18" s="17">
+        <v>10.402730375426621</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="20">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1200</v>
+      </c>
+      <c r="F19" s="14">
+        <v>35</v>
+      </c>
+      <c r="G19" s="14">
+        <v>25</v>
+      </c>
+      <c r="H19" s="17">
+        <v>10.561330561330562</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="14">
+        <v>36</v>
+      </c>
+      <c r="G20" s="14">
+        <v>30</v>
+      </c>
+      <c r="H20" s="17">
+        <v>21.740370898716122</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="20">
+        <v>9</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F21" s="14">
+        <v>28</v>
+      </c>
+      <c r="G21" s="14">
+        <v>30</v>
+      </c>
+      <c r="H21" s="17">
+        <v>38.291457286432163</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="20">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2050</v>
+      </c>
+      <c r="F22" s="14">
+        <v>30</v>
+      </c>
+      <c r="G22" s="14">
+        <v>25</v>
+      </c>
+      <c r="H22" s="17">
+        <v>14.58373205741627</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="20">
+        <v>11</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1800</v>
+      </c>
+      <c r="F23" s="14">
+        <v>30</v>
+      </c>
+      <c r="G23" s="14">
+        <v>35</v>
+      </c>
+      <c r="H23" s="17">
+        <v>16.264674493062969</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="20">
+        <v>12</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="14">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="14">
+        <v>33</v>
+      </c>
+      <c r="G24" s="14">
+        <v>30</v>
+      </c>
+      <c r="H24" s="17">
+        <v>27.709090909090911</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="20">
+        <v>13</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2900</v>
+      </c>
+      <c r="F25" s="14">
+        <v>38</v>
+      </c>
+      <c r="G25" s="14">
+        <v>25</v>
+      </c>
+      <c r="H25" s="17">
+        <v>28.222222222222221</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="20">
+        <v>14</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="14">
+        <v>30</v>
+      </c>
+      <c r="G26" s="14">
+        <v>30</v>
+      </c>
+      <c r="H26" s="17">
+        <v>37.080291970802897</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="20">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5200</v>
+      </c>
+      <c r="F27" s="14">
+        <v>32</v>
+      </c>
+      <c r="G27" s="14">
+        <v>100</v>
+      </c>
+      <c r="H27" s="17">
+        <v>15.711340206185568</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="20">
+        <v>16</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1700</v>
+      </c>
+      <c r="F28" s="14">
+        <v>35</v>
+      </c>
+      <c r="G28" s="14">
+        <v>150</v>
+      </c>
+      <c r="H28" s="17">
+        <v>12.522596548890716</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="11"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="28"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="G40" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H40" s="31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="I40" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C41" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D41" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E41" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F41" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G41" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H41" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I41" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="7">
+    <row r="42" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="32"/>
+      <c r="C42" s="33">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D42" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E42" s="35">
         <v>2700</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F42" s="35">
         <v>36</v>
       </c>
-      <c r="G10" s="8">
-        <v>30</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G42" s="35">
+        <v>30</v>
+      </c>
+      <c r="H42" s="36">
         <v>31</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I42" s="37">
         <v>77.5</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="7">
+    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="32"/>
+      <c r="C43" s="33">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D43" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E43" s="35">
         <v>2900</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F43" s="35">
         <v>33</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G43" s="35">
         <v>25</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H43" s="36">
         <v>39</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I43" s="37">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="7">
+    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D44" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E44" s="35">
         <v>3100</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F44" s="35">
         <v>33</v>
       </c>
-      <c r="G12" s="8">
-        <v>30</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G44" s="35">
+        <v>30</v>
+      </c>
+      <c r="H44" s="36">
         <v>39</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I44" s="37">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="7">
+    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="32"/>
+      <c r="C45" s="33">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D45" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E45" s="35">
         <v>2000</v>
       </c>
-      <c r="F13" s="8">
-        <v>30</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F45" s="35">
+        <v>30</v>
+      </c>
+      <c r="G45" s="35">
         <v>35</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H45" s="36">
         <v>23</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I45" s="37">
         <v>77.5</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="7">
+    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="32"/>
+      <c r="C46" s="33">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E46" s="35">
         <v>3000</v>
       </c>
-      <c r="F14" s="8">
-        <v>30</v>
-      </c>
-      <c r="G14" s="8">
-        <v>30</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="F46" s="35">
+        <v>30</v>
+      </c>
+      <c r="G46" s="35">
+        <v>30</v>
+      </c>
+      <c r="H46" s="36">
         <v>50</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I46" s="37">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="7">
+    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="32"/>
+      <c r="C47" s="33">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D47" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E47" s="35">
         <v>3300</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F47" s="35">
         <v>28</v>
       </c>
-      <c r="G15" s="8">
-        <v>30</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G47" s="35">
+        <v>30</v>
+      </c>
+      <c r="H47" s="36">
         <v>49</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I47" s="37">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="7">
+    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="32"/>
+      <c r="C48" s="33">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D48" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E48" s="35">
         <v>2250</v>
       </c>
-      <c r="F16" s="8">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F48" s="35">
+        <v>30</v>
+      </c>
+      <c r="G48" s="35">
         <v>25</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H48" s="36">
         <v>21</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I48" s="37">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="7">
+    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="32"/>
+      <c r="C49" s="33">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D49" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E49" s="35">
         <v>1050</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F49" s="35">
         <v>29</v>
       </c>
-      <c r="G17" s="8">
-        <v>30</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="G49" s="35">
+        <v>30</v>
+      </c>
+      <c r="H49" s="36">
         <v>15</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I49" s="37">
         <v>47.5</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="7">
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="32"/>
+      <c r="C50" s="33">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D50" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E50" s="35">
         <v>1200</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F50" s="35">
         <v>35</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G50" s="35">
         <v>25</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H50" s="36">
         <v>15</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I50" s="37">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="7">
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="32"/>
+      <c r="C51" s="33">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D51" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E51" s="35">
         <v>1250</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F51" s="35">
         <v>26</v>
       </c>
-      <c r="G19" s="8">
-        <v>30</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="G51" s="35">
+        <v>30</v>
+      </c>
+      <c r="H51" s="36">
         <v>15</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I51" s="37">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="7">
+    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="32"/>
+      <c r="C52" s="33">
         <v>11</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D52" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E52" s="35">
         <v>1400</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F52" s="35">
         <v>27</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G52" s="35">
         <v>64</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H52" s="36">
         <v>14</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I52" s="37">
         <v>47.5</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="7">
+    </row>
+    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="32"/>
+      <c r="C53" s="33">
         <v>12</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D53" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E53" s="35">
         <v>2350</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F53" s="35">
         <v>26</v>
       </c>
-      <c r="G21" s="8">
-        <v>30</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="G53" s="35">
+        <v>30</v>
+      </c>
+      <c r="H53" s="36">
         <v>17</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I53" s="37">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="7">
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="32"/>
+      <c r="C54" s="33">
         <v>13</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D54" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E54" s="35">
         <v>1700</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F54" s="35">
         <v>29</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G54" s="35">
         <v>50</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H54" s="36">
         <v>15</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I54" s="37">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="7">
+    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="32"/>
+      <c r="C55" s="33">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D55" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E55" s="35">
         <v>5200</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F55" s="35">
         <v>35</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G55" s="35">
         <v>150</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H55" s="36">
         <v>18</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I55" s="37">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="7">
+    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="32"/>
+      <c r="C56" s="33">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D56" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E56" s="36">
         <v>5700</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F56" s="36">
         <v>32</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G56" s="36">
         <v>100</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H56" s="36">
         <v>22</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I56" s="38">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B9:B24"/>
+  <mergeCells count="6">
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="B41:B56"/>
     <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B37:I38"/>
+    <mergeCell ref="B9:I10"/>
+    <mergeCell ref="B12:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>